--- a/fastqFiles/fastq_0773.xlsx
+++ b/fastqFiles/fastq_0773.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E693214D-944E-844E-A17E-4B324693EFFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB153CAA-8CFD-C343-B848-245101E7B65B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21160" windowHeight="8440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
   <si>
     <t>libraryDate</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -472,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B22 E2:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -512,7 +515,7 @@
         <v>773</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -532,7 +535,7 @@
         <v>773</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -552,7 +555,7 @@
         <v>773</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -572,7 +575,7 @@
         <v>773</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -592,7 +595,7 @@
         <v>773</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -612,7 +615,7 @@
         <v>773</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -632,7 +635,7 @@
         <v>773</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -652,7 +655,7 @@
         <v>773</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -672,7 +675,7 @@
         <v>773</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -692,7 +695,7 @@
         <v>773</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -712,7 +715,7 @@
         <v>773</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -732,7 +735,7 @@
         <v>773</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -752,7 +755,7 @@
         <v>773</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -772,7 +775,7 @@
         <v>773</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -792,7 +795,7 @@
         <v>773</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -812,7 +815,7 @@
         <v>773</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -832,7 +835,7 @@
         <v>773</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -852,7 +855,7 @@
         <v>773</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -872,7 +875,7 @@
         <v>773</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -892,7 +895,7 @@
         <v>773</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
@@ -912,7 +915,7 @@
         <v>773</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>

--- a/fastqFiles/fastq_0773.xlsx
+++ b/fastqFiles/fastq_0773.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">

--- a/fastqFiles/fastq_0773.xlsx
+++ b/fastqFiles/fastq_0773.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="34">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">run_773_s_2_withindex_sequence_ACTGTCG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4]</t>
   </si>
   <si>
     <t xml:space="preserve">run_773_s_2_withindex_sequence_GTATTTG.fastq.gz</t>
@@ -219,12 +222,14 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V14" activeCellId="0" sqref="V14"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="54.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,11 +603,11 @@
       <c r="H18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>9</v>
       </c>
@@ -619,13 +624,13 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="0" t="n">
-        <v>4</v>
+      <c r="I19" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -668,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
